--- a/result/Правила охорони праці під час виконання робіт на висоті.xlsx
+++ b/result/Правила охорони праці під час виконання робіт на висоті.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,19 +25,66 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Гальмівне зусилля, що виникає при падінні працівника не повинне</t>
-  </si>
-  <si>
-    <t xml:space="preserve">завдавати тілесних ушкоджень
-виводити з ладу засоби індивідуального захисту
-усі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>усі відповіді вірні</t>
-  </si>
-  <si>
-    <t>Новий наряд-допуск видається, якщо склад бригади змінився на</t>
+    <t>У випадку кріплення стропа за опору, що знаходиться на рівні ступень ніг, висота падіння має не перевищувати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5 м
+1м
+1,5 м
+</t>
+  </si>
+  <si>
+    <t>1м</t>
+  </si>
+  <si>
+    <t>Максимально допустима температура повітря при ВРНВ складає:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+30° C
++35° C
++40° C
+</t>
+  </si>
+  <si>
+    <t>+35° C</t>
+  </si>
+  <si>
+    <t>Межа небезпечних зон поблизу частин машини, що рухаються складає не менш:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 м
+5 м
+10 м
+</t>
+  </si>
+  <si>
+    <t>5 м</t>
+  </si>
+  <si>
+    <t>Документи з експлуатації виробника пасок установлюють:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можливі дефекти касок
+Термін експлуатації
+</t>
+  </si>
+  <si>
+    <t>Термін експлуатації</t>
+  </si>
+  <si>
+    <t>Невідкладні роботи на висоті з метою усунення аварійних ситуацій допускається виконувати за розпорядженням без оформлення наряду, якщо строк таких робіт не перевищує:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 години
+3 години
+1 доба
+</t>
+  </si>
+  <si>
+    <t>3 години</t>
+  </si>
+  <si>
+    <t>Новий наряд-допуск видається, якщо склад бригади змінився на:</t>
   </si>
   <si>
     <t xml:space="preserve">1 особу
@@ -49,7 +96,87 @@
     <t>50%</t>
   </si>
   <si>
-    <t>Під час експлуатації страхувальний канат випробовується один раз</t>
+    <t>Складене на спеціальному бланку виробниче завдання на безпечне проведення робіт називається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виробниче завдання
+Виробнича інструкція
+Наряд-допуск
+</t>
+  </si>
+  <si>
+    <t>Наряд-допуск</t>
+  </si>
+  <si>
+    <t>Чи допускається наявність слідів фарб на синтетичному запобіжному стропі?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допускається, якщо забруднення крапкове
+Забороняється
+</t>
+  </si>
+  <si>
+    <t>Забороняється</t>
+  </si>
+  <si>
+    <t>Навчання і перевірка знань працівників, що ВРНВ проводять:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щомісячно
+Що півроку
+Щорічно
+</t>
+  </si>
+  <si>
+    <t>Щорічно</t>
+  </si>
+  <si>
+    <t>При ВРНВ опорою називають:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поверхню, на яку опирається працівник шпал
+Елемент конструкції, до яких закріплюються працівники
+</t>
+  </si>
+  <si>
+    <t>Елемент конструкції, до яких закріплюються працівники</t>
+  </si>
+  <si>
+    <t>Металеві риштування, що використовуються під час ВРНВ повинні бути:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Занулені
+Заземлені
+</t>
+  </si>
+  <si>
+    <t>Заземлені</t>
+  </si>
+  <si>
+    <t>Перелік робіт, що виконуються за нарядом-допуском на підприємстві:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установлює законодавство
+Затверджує наказом роботодавець
+</t>
+  </si>
+  <si>
+    <t>Затверджує наказом роботодавець</t>
+  </si>
+  <si>
+    <t>Випробування засобів захисту проводяться відповідно до:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вимог законодавства
+Документів виробника
+Вимог законодавства і документів виробника
+</t>
+  </si>
+  <si>
+    <t>Вимог законодавства і документів виробника</t>
+  </si>
+  <si>
+    <t>Під час експлуатації запобіжні пояси мають проходити випробування один раз на:</t>
   </si>
   <si>
     <t xml:space="preserve">1 місяць
@@ -61,162 +188,106 @@
     <t>6 місяців</t>
   </si>
   <si>
-    <t>Яка максимальна довжина запобіжного стропа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 м
-1,5 м
-2 м
-</t>
-  </si>
-  <si>
-    <t>2 м</t>
-  </si>
-  <si>
-    <t>Чи дозволяється самостійно ремонтувати вилучені з експлуатації запобіжні пояси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">забороняється завжди
-дозволяється, якщо ремонт незначний
-</t>
-  </si>
-  <si>
-    <t>забороняється завжди</t>
-  </si>
-  <si>
-    <t>Документи з експлуатації виробника пасок установлюють</t>
-  </si>
-  <si>
-    <t xml:space="preserve">можливі дефекти касок
-термін експлуатації
-</t>
-  </si>
-  <si>
-    <t>термін експлуатації</t>
-  </si>
-  <si>
-    <t>Форма наряду-допуску</t>
-  </si>
-  <si>
-    <t xml:space="preserve">затверджується наказом роботодавця
-установлюється законодавством
-</t>
-  </si>
-  <si>
-    <t>установлюється законодавством</t>
-  </si>
-  <si>
-    <t>Опора, що витримує навантаження 7 КН називається</t>
-  </si>
-  <si>
-    <t xml:space="preserve">головна опора
-основна опора
-допоміжна опора
-</t>
-  </si>
-  <si>
-    <t>допоміжна опора</t>
-  </si>
-  <si>
-    <t>Корпус каски повинен бути стійким до дії</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хімічно агресивних речовин
-води
-усі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>При виконанні робіт за нарядом-допуском проводиться інструктаж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">позаплановий
-цільовий
-повторний
-</t>
-  </si>
-  <si>
-    <t>цільовий</t>
-  </si>
-  <si>
-    <t>Чи дозволяється використовувати заводський номер поясу як інвентар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">забороняється
-дозволяється
-</t>
-  </si>
-  <si>
-    <t>дозволяється</t>
-  </si>
-  <si>
-    <t>Межа небезпечних зон поблизу частин машини, що рухаються складає не менш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 м
-5 м
-10 м
-</t>
-  </si>
-  <si>
-    <t>5 м</t>
-  </si>
-  <si>
-    <t>Робота на висоті, це роботи, що виконується на висоті</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вище 1,3 м
-вище 5 м
-від 1,3 м до 5 м
-</t>
-  </si>
-  <si>
-    <t>від 1,3 м до 5 м</t>
-  </si>
-  <si>
-    <t>Що не належить до засобів захисту від падіння з висоти</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пояса запобіжні
-паски
-драбини
-страхувальні канати
-огородження
-</t>
-  </si>
-  <si>
-    <t>драбини</t>
-  </si>
-  <si>
-    <t>Наряд-допуск видається</t>
-  </si>
-  <si>
-    <t xml:space="preserve">працівникам, що виконують роботу
-відповідальному керівнику робіт
-</t>
-  </si>
-  <si>
-    <t>відповідальному керівнику робіт</t>
-  </si>
-  <si>
-    <t>Засіб захисту від падіння з висоти, це пояс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛ
-ПБ
-</t>
-  </si>
-  <si>
-    <t>ПЛ</t>
-  </si>
-  <si>
-    <t>Засіб захисту для тримання працівника на робочому місці, це пояс</t>
-  </si>
-  <si>
-    <t>ПБ</t>
-  </si>
-  <si>
-    <t>Максимально допустима швидкість вітру при ВРНВ складає</t>
+    <t>Елемент страхувальної системи, що знижує динамічне навантаження на тіло людини при зупинці його падіння називається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гальмо
+Амортизатор
+Уловлювач
+</t>
+  </si>
+  <si>
+    <t>Амортизатор</t>
+  </si>
+  <si>
+    <t>Опора, що витримує навантаження 7 КН називається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Головна опора
+Основна опора
+Допоміжна опора
+</t>
+  </si>
+  <si>
+    <t>Допоміжна опора</t>
+  </si>
+  <si>
+    <t>Чи належать до засобів захисту від падіння з висоти знаки безпеки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Належать
+Не належать
+</t>
+  </si>
+  <si>
+    <t>Належать</t>
+  </si>
+  <si>
+    <t>Що не наноситься на запобіжному поясі?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Знак виробника
+Розмір та тип
+Дата виготовлення
+Стандарт або ТУ
+Маса поясу
+Клеймо СТК
+</t>
+  </si>
+  <si>
+    <t>Маса поясу</t>
+  </si>
+  <si>
+    <t>Типи, перелік необхідних засобів захисту та порядок безпечного виконання робіт на висоті зазначаються:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У наряді
+У ПВР
+У наряді і ПВР
+</t>
+  </si>
+  <si>
+    <t>У наряді і ПВР</t>
+  </si>
+  <si>
+    <t>Корпус каски повинен бути стійким до дії:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хімічно агресивних речовин
+Води
+Усі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Усі відповіді вірні</t>
+  </si>
+  <si>
+    <t>Що не належить до засобів захисту від падіння з висоти:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пояса запобіжні
+Паски
+Драбини
+Страхувальні канати
+Огородження
+</t>
+  </si>
+  <si>
+    <t>Драбини</t>
+  </si>
+  <si>
+    <t>Наряд-допуск видається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Працівникам, що виконують роботу
+Відповідальному керівнику робіт
+</t>
+  </si>
+  <si>
+    <t>Відповідальному керівнику робіт</t>
+  </si>
+  <si>
+    <t>Максимально допустима швидкість вітру при ВРНВ складає:</t>
   </si>
   <si>
     <t xml:space="preserve">5 м/с
@@ -228,147 +299,80 @@
     <t>10 м/с</t>
   </si>
   <si>
-    <t>Металеві риштування, що використовуються під час ВРНВ повинні бути</t>
-  </si>
-  <si>
-    <t xml:space="preserve">занулені
-заземлені
-</t>
-  </si>
-  <si>
-    <t>заземлені</t>
-  </si>
-  <si>
-    <t>Перелік робіт, що виконуються за нарядом-допуском на підприємстві</t>
-  </si>
-  <si>
-    <t xml:space="preserve">установлює законодавство
-затверджує наказом роботодавець
-</t>
-  </si>
-  <si>
-    <t>затверджує наказом роботодавець</t>
-  </si>
-  <si>
-    <t>Елемент страхувальної системи, що з’єднує пояс і опору називається</t>
-  </si>
-  <si>
-    <t xml:space="preserve">фал
-запобіжний строп
-з’єднувач
-</t>
-  </si>
-  <si>
-    <t>запобіжний строп</t>
-  </si>
-  <si>
-    <t>Чи дозволяється на страхувальному сталевому канаті обірвані дроти</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дозволяється установлена кількість
-забороняється
-</t>
-  </si>
-  <si>
-    <t>забороняється</t>
-  </si>
-  <si>
-    <t>Наряд-допуск виписується у кількості примірників</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-2
-3
-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>При ВРНВ опорою називають</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поверхню, на яку опирається працівник шпал
-елемент конструкції, до яких закріплюються працівники
-</t>
-  </si>
-  <si>
-    <t>елемент конструкції, до яких закріплюються працівники</t>
-  </si>
-  <si>
-    <t>До нарядів-допуску додаються</t>
-  </si>
-  <si>
-    <t xml:space="preserve">інструкції з ОП
-проекти виконання робіт
-накази на виконання робіт
-</t>
-  </si>
-  <si>
-    <t>проекти виконання робіт</t>
-  </si>
-  <si>
-    <t>Наряди, роботи за повністю закінчені зберігаються протягом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 діб
-30 діб
-1 рік
-</t>
-  </si>
-  <si>
-    <t>30 діб</t>
-  </si>
-  <si>
-    <t>Елемент страхувальної системи, що знижує динамічне навантаження на тіло людини при зупинці його падіння називається</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гальмо
-амортизатор
-уловлювач
-</t>
-  </si>
-  <si>
-    <t>амортизатор</t>
-  </si>
-  <si>
-    <t>Що не наноситься на запобіжному поясі</t>
-  </si>
-  <si>
-    <t xml:space="preserve">знак виробника
-розмір та тип
-дата виготовлення
-стандарт або ТУ
-маса поясу
-клеймо СТК
-</t>
-  </si>
-  <si>
-    <t>маса поясу</t>
-  </si>
-  <si>
-    <t>Мінімальна допустима температура повітря при ВРНВ складає</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10° C
-20° C
-30° C
-</t>
-  </si>
-  <si>
-    <t>20° C</t>
-  </si>
-  <si>
-    <t>Невідкладні роботи на висоті з метою усунення аварійних ситуацій допускається виконувати за розпорядженням без оформлення наряду, якщо строк таких робіт не перевищує</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 години
-3 години
-1 доба
-</t>
-  </si>
-  <si>
-    <t>3 години</t>
+    <t>Після закінчення роботи деталі із шкіри потрібно:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промити водою
+Змастити жиром
+Промити мильною емульсією
+</t>
+  </si>
+  <si>
+    <t>Змастити жиром</t>
+  </si>
+  <si>
+    <t>Чи допускається видавати виробниче завдання на ВРНВ усно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допускається
+Не допускається
+</t>
+  </si>
+  <si>
+    <t>Допускається</t>
+  </si>
+  <si>
+    <t>Чи дозволяється самостійно ремонтувати вилучені з експлуатації запобіжні пояси?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забороняється завжди
+Дозволяється, якщо ремонт незначний
+</t>
+  </si>
+  <si>
+    <t>Забороняється завжди</t>
+  </si>
+  <si>
+    <t>Гальмівне зусилля, що виникає при падінні працівника не повинне:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Завдавати тілесних ушкоджень
+Виводити з ладу засоби індивідуального захисту
+Усі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Пояса та приладдя до них мають використовуватися навантаженням:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статичним
+Динамічним
+</t>
+  </si>
+  <si>
+    <t>Статичним</t>
+  </si>
+  <si>
+    <t>Амортизатори кожні 6 місяців повинні проходити випробування:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статичні
+Динамічні
+</t>
+  </si>
+  <si>
+    <t>Статичні</t>
+  </si>
+  <si>
+    <t>Форма наряду-допуску:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затверджується наказом роботодавця
+Установлюється законодавством
+</t>
+  </si>
+  <si>
+    <t>Установлюється законодавством</t>
   </si>
 </sst>
 </file>
@@ -813,238 +817,238 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
